--- a/Plots/MohitPlotsDE/pancreas_01_ductalVsacinar_DEtrain.xlsx
+++ b/Plots/MohitPlotsDE/pancreas_01_ductalVsacinar_DEtrain.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="JIND+" r:id="rId3" sheetId="1"/>
+    <sheet name="Cell Annotations" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>

--- a/Plots/MohitPlotsDE/pancreas_01_ductalVsacinar_DEtrain.xlsx
+++ b/Plots/MohitPlotsDE/pancreas_01_ductalVsacinar_DEtrain.xlsx
@@ -6277,7 +6277,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="4">
@@ -6297,7 +6297,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="5">
@@ -6317,7 +6317,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="6">
@@ -6337,7 +6337,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="7">
@@ -6357,7 +6357,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="8">
@@ -6377,7 +6377,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="9">
@@ -6397,7 +6397,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="10">
@@ -6417,7 +6417,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="11">
@@ -6437,7 +6437,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="12">
@@ -6457,7 +6457,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="13">
@@ -6477,7 +6477,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="14">
@@ -6497,7 +6497,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="15">
@@ -6517,7 +6517,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="16">
@@ -6537,7 +6537,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="17">
@@ -6557,7 +6557,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="18">
@@ -6577,7 +6577,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="19">
@@ -47268,7 +47268,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="4">
@@ -47288,7 +47288,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="5">
@@ -47308,7 +47308,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="6">
@@ -47328,7 +47328,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="7">
@@ -47348,7 +47348,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="8">
@@ -47368,7 +47368,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="9">
@@ -47388,7 +47388,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="10">
@@ -47408,7 +47408,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="11">
@@ -47428,7 +47428,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="12">
@@ -47448,7 +47448,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="13">
@@ -47468,7 +47468,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="14">
@@ -47488,7 +47488,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="15">
@@ -47508,7 +47508,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="16">
@@ -47528,7 +47528,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="17">
@@ -47548,7 +47548,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="18">
@@ -47568,7 +47568,7 @@
         <v>646.6577836049534</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0</v>
+        <v>1.445749E-281</v>
       </c>
     </row>
     <row r="19">
